--- a/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Request to Contact.xlsx
+++ b/Outputs/Treatment at T1 v. T2 (Unweighted)/Tables - Ordinal Variables - Treatment at T1 v. T2 (Unweighted) - Request to Contact.xlsx
@@ -40003,77 +40003,77 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>
@@ -40087,77 +40087,77 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>
@@ -84047,77 +84047,77 @@
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>
@@ -84131,77 +84131,77 @@
       </c>
       <c r="D1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="E1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="F1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="G1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="K1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="L1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="M1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="P1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="Q1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>nan%</t>
         </is>
       </c>
     </row>
